--- a/excel_files/쿠팡로켓배송리스트.xlsx
+++ b/excel_files/쿠팡로켓배송리스트.xlsx
@@ -399,7 +399,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>522</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -411,80 +411,80 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Apple 에어팟 2세대 유선 충전 모델, MV7N2KH/A</t>
+          <t>SK매직 고급형 전자레인지 20L, MWO-20EC2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159190</v>
+        <v>72530</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6735</t>
+          <t>9291</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://thumbnail14.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/04/18/4643936599/d9513c29-b82a-470a-918a-f3b03a5cd6e0.jpg</t>
+          <t>http://thumbnail13.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2018/10/16/3022853279/4a2ba5cd-b809-4cc6-b73e-7e33be95ea46.jpg</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>신지모루 오그랩 전동 차량용 무선충전 거치대, 혼합 색상, 1개</t>
+          <t>Apple 에어팟 2세대 유선 충전 모델, MV7N2KH/A</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32900</v>
+        <v>159190</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2426</t>
+          <t>6861</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://thumbnail12.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/08/16/4278224805/fabaacf0-8d8b-41a9-b430-e343776f0815.jpg</t>
+          <t>http://thumbnail14.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/04/18/4643936599/d9513c29-b82a-470a-918a-f3b03a5cd6e0.jpg</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>오엠티 휴대용 무선충전식 실리콘 진동클렌저, OMS-703, 베이비핑크</t>
+          <t>신지모루 오그랩 전동 차량용 무선충전 거치대, 혼합 색상, 1개</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19920</v>
+        <v>32900</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>2434</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://thumbnail12.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/06/20/4187689604/7c0a9c7f-4287-4c4f-afe1-3f2729bc2e22.jpg</t>
+          <t>http://thumbnail12.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/08/16/4278224805/fabaacf0-8d8b-41a9-b430-e343776f0815.jpg</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>키친아트 라팔 뉴 멀티 포트 전기냄비 1.7, KP-1007FT</t>
+          <t>오엠티 휴대용 무선충전식 실리콘 진동클렌저, OMS-703, 베이비핑크</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13230</v>
+        <v>19920</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1062</t>
+          <t>323</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://thumbnail12.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2018/11/22/4040066444/377e5ba3-5a08-4153-a033-61642fd7522a.jpg</t>
+          <t>http://thumbnail12.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/06/20/4187689604/7c0a9c7f-4287-4c4f-afe1-3f2729bc2e22.jpg</t>
         </is>
       </c>
     </row>
@@ -495,11 +495,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189690</v>
+        <v>187480</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1570</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>648</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -535,11 +535,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15760</v>
+        <v>15750</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5198</t>
+          <t>5206</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2580</t>
+          <t>2591</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -575,11 +575,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30560</v>
+        <v>29880</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>918</t>
+          <t>920</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -611,120 +611,120 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>오아 TWS 블루투스이어폰, OA-EP028, 블랙</t>
+          <t>요이치 하이드 5.0 블루투스이어폰 + 실리콘케이스 + 키링, IG-TW001, 혼합 색상</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59900</v>
+        <v>29800</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://thumbnail11.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/05/20/4120011717/8d162e0e-6a21-4373-9573-97d1d689e25a.jpg</t>
+          <t>http://thumbnail14.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/02/28/4094470151/711757d0-7b8b-483d-8e75-40b23ac13959.jpg</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SK매직 고급형 전자레인지 20L, MWO-20EC2</t>
+          <t>삼성전자 컬러 잉크젯 복합기 SL-J1660, 혼합 색상</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58020</v>
+        <v>48150</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>9278</t>
+          <t>3502</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://thumbnail13.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2018/10/16/3022853279/4a2ba5cd-b809-4cc6-b73e-7e33be95ea46.jpg</t>
+          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2018/10/25/3156395949/4aa0c31b-4a5e-4d35-8d31-7d55d46f8fa4.jpg</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>챌린지하이브리드 오토페어링 에어 완전무선 블루투스 5.0 이어폰, CHE-100ST, 화이트</t>
+          <t>좋은생활지웰 무선 진공 청소기 GWELL-501, 로즈골드</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>39900</v>
+        <v>68900</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>1381</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://thumbnail11.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/08/19/4383888836/09d884ca-859f-4d98-94b9-264cccf10487.jpg</t>
+          <t>http://thumbnail13.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2018/11/19/3937071148/35151eb8-905e-4b21-9e28-fc4206d202e4.jpg</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>키친플라워 쿠킨 고속 파워 믹서기 KEM-KD910CP</t>
+          <t>키친아트 라팔 뉴 멀티 포트 전기냄비 1.7, KP-1007FT</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29900</v>
+        <v>13230</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>1062</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/retail/images/2019/05/15/11/6/cfccdf13-08cb-494f-addd-cb7d517960e4.jpg</t>
+          <t>http://thumbnail12.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2018/11/22/4040066444/377e5ba3-5a08-4153-a033-61642fd7522a.jpg</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>좋은생활지웰 무선 진공 청소기 GWELL-501, 로즈골드</t>
+          <t>챌린지하이브리드 원터치 차량용 거치대, 블랙, 1개</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68900</v>
+        <v>9900</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1380</t>
+          <t>2908</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://thumbnail13.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2018/11/19/3937071148/35151eb8-905e-4b21-9e28-fc4206d202e4.jpg</t>
+          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/03/29/3478314992/afdbfdfb-de92-4cc0-bd17-0e8b057cd358.jpg</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>챌린지하이브리드 원터치 차량용 거치대, 블랙, 1개</t>
+          <t>유닉스 퀵&amp;스트롱 스트레이트 고데기 UCI-B2942, 혼합 색상</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9900</v>
+        <v>19000</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2905</t>
+          <t>270</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/03/29/3478314992/afdbfdfb-de92-4cc0-bd17-0e8b057cd358.jpg</t>
+          <t>http://thumbnail13.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/05/10/4743077697/4cb978fa-46fe-41f7-8eba-6a0d0793798b.jpg</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2987</t>
+          <t>2996</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2164</t>
+          <t>2178</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1818</t>
+          <t>1824</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -791,60 +791,60 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DANMI 클린케어 휴대용 충전식 구강세정기, CLS01</t>
+          <t>오아 TWS 블루투스이어폰, OA-EP028, 블랙</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>38330</v>
+        <v>59900</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>498</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://thumbnail12.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/01/18/3892428718/cf1cb8f6-bf84-4ed1-8ff4-b7ba80c3dcff.jpg</t>
+          <t>http://thumbnail11.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/05/20/4120011717/8d162e0e-6a21-4373-9573-97d1d689e25a.jpg</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>요이치 하이드 5.0 블루투스이어폰 + 실리콘케이스 + 키링, IG-TW001, 혼합 색상</t>
+          <t>챌린지하이브리드 오토페어링 에어 완전무선 블루투스 5.0 이어폰, CHE-100ST, 화이트</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29800</v>
+        <v>39900</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1594</t>
+          <t>838</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://thumbnail14.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/02/28/4094470151/711757d0-7b8b-483d-8e75-40b23ac13959.jpg</t>
+          <t>http://thumbnail11.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/08/19/4383888836/09d884ca-859f-4d98-94b9-264cccf10487.jpg</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>삼성전자 컬러 잉크젯 복합기 SL-J1660, 혼합 색상</t>
+          <t>DANMI 클린케어 휴대용 충전식 구강세정기, CLS01</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>48150</v>
+        <v>38330</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3500</t>
+          <t>331</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2018/10/25/3156395949/4aa0c31b-4a5e-4d35-8d31-7d55d46f8fa4.jpg</t>
+          <t>http://thumbnail12.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/01/18/3892428718/cf1cb8f6-bf84-4ed1-8ff4-b7ba80c3dcff.jpg</t>
         </is>
       </c>
     </row>
@@ -871,67 +871,67 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>COX 축교환식 레인보우 LED 기계식 게이밍 키보드 청축, CK420, 화이트</t>
+          <t>샤오미 체지방 체중계 2세대, XMTZC05HM, 혼합 색상</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31850</v>
+        <v>27440</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://thumbnail13.coupangcdn.com/thumbnails/remote/230x230ex/image/retail/images/2018/08/06/15/5/43714a5f-0794-475e-9cd3-f6ce8c93aead.jpg</t>
+          <t>http://thumbnail13.coupangcdn.com/thumbnails/remote/230x230ex/image/retail/images/2019/07/03/16/8/c176be2e-5b14-4e82-8c4d-d29fe4c49e4b.jpg</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>요이치 무선 블루투스 욜로 스마트폰 셀카봉, YSS-WT300(블랙)</t>
+          <t>COX 축교환식 레인보우 LED 기계식 게이밍 키보드 청축, CK420, 화이트</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19800</v>
+        <v>32250</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>6064</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2018/10/05/3230243824/0a83eabc-3f00-435b-a263-40220fe10fe4.jpg</t>
+          <t>http://thumbnail13.coupangcdn.com/thumbnails/remote/230x230ex/image/retail/images/2018/08/06/15/5/43714a5f-0794-475e-9cd3-f6ce8c93aead.jpg</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>유닉스 퀵&amp;스트롱 스트레이트 고데기 UCI-B2942, 혼합 색상</t>
+          <t>신지모루 풀커버 강화유리 3D 액정보호필름, 1개</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19000</v>
+        <v>9730</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://thumbnail13.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/05/10/4743077697/4cb978fa-46fe-41f7-8eba-6a0d0793798b.jpg</t>
+          <t>http://thumbnail11.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/01/07/4097218537/cea751aa-1875-4395-af97-9053f7e66039.jpg</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>신지모루 풀커버 강화유리 3D 액정보호필름, 1개</t>
+          <t>신지모루 신지글래스 5D 풀커버 강화유리 액정보호필름, 1세트</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -939,12 +939,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1858</t>
+          <t>629</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://thumbnail11.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/01/07/4097218537/cea751aa-1875-4395-af97-9053f7e66039.jpg</t>
+          <t>http://thumbnail11.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/07/19/4722002891/e0aec1f2-3c1a-4455-a380-29566352f386.jpg</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>11291</t>
+          <t>11294</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2032</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>1725</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>7062</t>
+          <t>7061</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1071,40 +1071,40 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>샤오미 체지방 체중계 2세대, XMTZC05HM, 혼합 색상</t>
+          <t>요이치 무선 블루투스 욜로 스마트폰 셀카봉, YSS-WT300(블랙)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>27440</v>
+        <v>19800</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://thumbnail13.coupangcdn.com/thumbnails/remote/230x230ex/image/retail/images/2019/07/03/16/8/c176be2e-5b14-4e82-8c4d-d29fe4c49e4b.jpg</t>
+          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2018/10/05/3230243824/0a83eabc-3f00-435b-a263-40220fe10fe4.jpg</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>신지모루 신지글래스 5D 풀커버 강화유리 액정보호필름, 1세트</t>
+          <t>한성컴퓨터 SIROCO LED PC 사운드바, GS100, 건메탈</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9730</v>
+        <v>19150</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>3233</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://thumbnail11.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/07/19/4722002891/e0aec1f2-3c1a-4455-a380-29566352f386.jpg</t>
+          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/retail/images/2017/11/17/11/7/fc4ae136-b5da-4663-bb90-4c335443655a.jpg</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>7327</t>
+          <t>7333</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1131,20 +1131,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>내셔널지오그래픽 스마트폰 방수팩, 블랙, 상세설명 참조</t>
+          <t>디지지 3in1 스마트폰 멀티케이블 스카이 메타 고속 충전 케이블 170 cm, 메탈실버, 1개</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>10220</v>
+        <v>5500</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1366</t>
+          <t>757</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://thumbnail14.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2018/11/02/3237803407/25941218-b957-4193-9a26-91e117a309ac.jpg</t>
+          <t>http://thumbnail12.coupangcdn.com/thumbnails/remote/230x230ex/image/retail/images/2018/11/09/10/8/abc3ce13-56f9-4508-9704-4b023bf6b4ed.jpg</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1397</t>
+          <t>1398</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3870</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>806</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1211,80 +1211,80 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>폴라로이드 HD 32형 무결점 TV 자가설치, CP320H</t>
+          <t>쿠첸 전기압력밥솥 6인용, CJS-FA0605V</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>119000</v>
+        <v>117600</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>6192</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/03/06/3596390160/bc65ed0b-6f61-4ec3-a656-f7364e2137c5.jpg</t>
+          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/01/07/3080806971/9110ed96-a153-42e3-8bde-df49fac03f64.jpg</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>삼성전자 갤럭시 탭 A 8.0 태블릿PC, SM-T380, 실버</t>
+          <t>폴라로이드 HD 32형 무결점 TV 자가설치, CP320H</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>185000</v>
+        <v>119000</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>396</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://thumbnail14.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/04/29/3432584750/30edd83f-da9e-47be-9c43-eb0cbc1d9cd9.jpg</t>
+          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/03/06/3596390160/bc65ed0b-6f61-4ec3-a656-f7364e2137c5.jpg</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>엠피온 태양광충전 무선 하이패스, SET-525</t>
+          <t>보랄 Q10 무선 청소기 BR-Q390RV, 화이트</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>54900</v>
+        <v>56900</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4312</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://thumbnail12.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2018/10/17/3136078663/45b87df2-4072-432a-81b1-a6e3e4f07ab0.jpg</t>
+          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/retail/images/2019/05/28/15/8/bb65f6d1-2b13-4d13-87a5-cb6bcf24dc42.jpg</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>쿠팡 브랜드 - 시터스 모던 디지털 체중계, QCB-N1, 화이트</t>
+          <t>엠피온 태양광충전 무선 하이패스, SET-525</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8900</v>
+        <v>54900</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>4313</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/06/27/4441132373/09ab93cd-659a-4f49-ae0d-e103fa7d750e.jpg</t>
+          <t>http://thumbnail12.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2018/10/17/3136078663/45b87df2-4072-432a-81b1-a6e3e4f07ab0.jpg</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>9402</t>
+          <t>9420</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1311,60 +1311,60 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>한성컴퓨터 SIROCO LED PC 사운드바, GS100, 건메탈</t>
+          <t>신지모루 에어클로 휴대폰 케이스</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>19150</v>
+        <v>7730</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3228</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/retail/images/2017/11/17/11/7/fc4ae136-b5da-4663-bb90-4c335443655a.jpg</t>
+          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/08/07/3378818540/681852e8-39df-4c8d-bbd7-3f7b92b69be9.jpg</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>신지모루 에어클로 휴대폰 케이스</t>
+          <t>삼성전자 무선충전 보조배터리, EB-U1200, 실버</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>7730</v>
+        <v>40220</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3466</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/08/07/3378818540/681852e8-39df-4c8d-bbd7-3f7b92b69be9.jpg</t>
+          <t>http://thumbnail14.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/04/16/4465465474/3647c24f-b206-4c21-9fbf-85bde2f7b3ff.jpg</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>디지지 3in1 스마트폰 멀티케이블 스카이 메타 고속 충전 케이블 170 cm, 메탈실버, 1개</t>
+          <t>하이플러스카드 하이패스 자동충전카드, 자동충전카드 셀프형 개별포장</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5500</v>
+        <v>5480</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>2924</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://thumbnail12.coupangcdn.com/thumbnails/remote/230x230ex/image/retail/images/2018/11/09/10/8/abc3ce13-56f9-4508-9704-4b023bf6b4ed.jpg</t>
+          <t>http://thumbnail13.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/05/10/3051062251/47d98b63-11fe-418d-83d8-89f4fcf2db5a.jpg</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>732</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1411,100 +1411,100 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>쿠첸 전기압력밥솥 6인용, CJS-FA0605V</t>
+          <t>삼성전자 갤럭시 탭 A 8.0 태블릿PC, SM-T380, 실버</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>117600</v>
+        <v>185000</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>6189</t>
+          <t>403</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/01/07/3080806971/9110ed96-a153-42e3-8bde-df49fac03f64.jpg</t>
+          <t>http://thumbnail14.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/04/29/3432584750/30edd83f-da9e-47be-9c43-eb0cbc1d9cd9.jpg</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>보랄 Q10 무선 청소기 BR-Q390RV, 화이트</t>
+          <t>브리츠 무선충전 C타입 블루투스 5.0 이어폰, BribudsTWS10, 블랙</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>56900</v>
+        <v>59400</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/retail/images/2019/05/28/15/8/bb65f6d1-2b13-4d13-87a5-cb6bcf24dc42.jpg</t>
+          <t>http://thumbnail12.coupangcdn.com/thumbnails/remote/230x230ex/image/retail/images/2019/07/04/3/3/aac8c72c-83f6-4280-9a10-c0c3514d04b0.jpg</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>벤토사 전문가용 DSLR 스마트폰 미러리스 겸용 3단 삼각대 VTS-PRO3 + 블루투스 리모컨 + 리모컨 홀더 세트</t>
+          <t>Apple 애플펜슬 MK0C2KH/A, 1개</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>28350</v>
+        <v>108230</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1812</t>
+          <t>1457</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://thumbnail11.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2018/10/24/3485930120/51f3cd03-f71d-4ec0-a915-ff8926187d5d.jpg</t>
+          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/03/20/3098294153/9cb21c7a-6240-4f79-a7d4-ca688ae82d3f.jpg</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Apple 애플펜슬 MK0C2KH/A, 1개</t>
+          <t>COX 가상 7.1 진동 RGB LED 게이밍 헤드셋, COX CH50, 블랙</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>108230</v>
+        <v>37370</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/03/20/3098294153/9cb21c7a-6240-4f79-a7d4-ca688ae82d3f.jpg</t>
+          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/retail/images/2017/12/26/18/3/4e06db03-a8e4-4805-aa7b-8298935ad2a7.jpg</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>에미데 골드 라벨 시리즈 티타늄 칼날 텀블러 믹서기 EM-232MC</t>
+          <t>쿠팡 브랜드 - 시터스 모던 디지털 체중계, QCB-N1, 화이트</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>24380</v>
+        <v>8900</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://thumbnail12.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/06/27/4577089101/f26c3748-8a49-42a3-ac5e-eac3197babb0.jpg</t>
+          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/06/27/4441132373/09ab93cd-659a-4f49-ae0d-e103fa7d750e.jpg</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>5538</t>
+          <t>5540</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1531,56 +1531,60 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>클럭 미니 마사지기 기본패드 3p SP-308</t>
+          <t>본조르노 마이크로5핀 고속충전 메탈 케이블 1.5m, 2개입</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>15900</v>
+        <v>5980</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>1247</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://thumbnail12.coupangcdn.com/thumbnails/remote/230x230ex/image/retail/images/2019/05/14/17/3/e4fe8b0b-37a1-4659-ab7f-427d7db00724.jpg</t>
+          <t>http://thumbnail14.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2018/12/28/3804731849/435dff6d-04f1-4c3a-a646-015b9621c7af.jpg</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>카멜레온360 송풍구형 스마트폰 차량용 거치대 A type, 블랙, 1개</t>
+          <t>오토반 차량용 와인아트 퀵 스마트폰 거치대, 블랙, 1개</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>14280</v>
+        <v>5250</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3332</t>
+          <t>5073</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2018/10/04/3524162618/4096ad0f-ee79-4cff-8c63-d0e16b86eae2.jpg</t>
+          <t>http://thumbnail15.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/04/02/3118633933/0769c345-454a-45a5-9d93-ac76ddf64b68.jpg</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>[사전예약] 삼성전자 갤럭시탭S6 10.5 256G WIFI, SM-T860N, 로즈 블러쉬</t>
+          <t>삼성전자 고속 무선충전패드 EP-P1100BBKGKR, 블랙</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>835790</v>
-      </c>
-      <c r="C61" t="inlineStr"/>
+        <v>18170</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://thumbnail14.coupangcdn.com/thumbnails/remote/230x230ex/image/retail/images/2019/08/16/16/1/0cc587b9-1e08-4e22-b0a5-b5bc49933795.jpg</t>
+          <t>http://thumbnail14.coupangcdn.com/thumbnails/remote/230x230ex/image/product/image/vendoritem/2019/04/30/4485966113/2a1bbf9f-5296-417f-b0bd-5b5cdea0719e.jpg</t>
         </is>
       </c>
     </row>
